--- a/mappings/2_Kress_ObjectAcquisition_ImportMapping.xlsx
+++ b/mappings/2_Kress_ObjectAcquisition_ImportMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC3E41-B4EE-5844-8DF1-981CFC23FD2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A4140-8100-4A4F-919E-E73E2FD652B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29180" yWindow="3720" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36960" yWindow="3780" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -381,50 +381,29 @@
     <t>movementSplitter</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">{
+    <t>{
 	 "relationshipType": "related",
 "movementType": "acquisition",
 	"matchOn": [
 		"idno"
 	],
 	"interstitial": {
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"AcqObjJoin_ID": "^1",
-"AcqObjJoin_TitleDescription": "^2",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-"AcqObjJoin_Type":"^3",
-"AcqObjJoin_Attribution": "^4",
-		"AcqObjJoin_PriceUSD": "^6",
-		"AcqObjJoin_CreditUSD": "^7",
-		"AcqObjJoin_ReturnUSD": "^8",
-		"AcqObjJoin_InternalNote": "^9"
+"AcqObjJoin_ID": "^1",
+"AcqObjJoin_Type":"^2",
+"AcqObjJoin_Attribution": "^6",
+		"AcqObjJoin_PriceUSD": "^3",
+		"AcqObjJoin_CreditUSD": "^4",
+		"AcqObjJoin_ReturnUSD": "^5",
+		"AcqObjJoin_InternalNote": "^8"
 	}
 }</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,12 +477,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -621,7 +594,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,18 +813,18 @@
   <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
@@ -1260,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>113</v>
@@ -1294,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>44</v>
@@ -1304,7 +1277,7 @@
       <c r="F14" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="31" t="s">
         <v>116</v>
       </c>
       <c r="H14" s="20"/>
@@ -1591,7 +1564,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>86</v>

--- a/mappings/2_Kress_ObjectAcquisition_ImportMapping.xlsx
+++ b/mappings/2_Kress_ObjectAcquisition_ImportMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eveperry/Desktop/Kress/import_mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42A4140-8100-4A4F-919E-E73E2FD652B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFCD6F7-AFA0-8447-86CE-B6B525872582}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36960" yWindow="3780" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,12 +461,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF993300"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,17 +572,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -813,7 +806,7 @@
   <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -1229,19 +1222,19 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="14" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="19">
         <v>9</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -1262,8 +1255,8 @@
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
     </row>
-    <row r="14" spans="1:26" ht="164" customHeight="1">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:26" ht="22" customHeight="1">
+      <c r="A14" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="19">
@@ -1639,7 +1632,7 @@
       <c r="B25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="3" t="s">
